--- a/Nueva carpeta/base de datos.xlsx
+++ b/Nueva carpeta/base de datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\newhard-tecnologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\newhard-tecnologia\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>productos</t>
   </si>
@@ -116,7 +116,10 @@
     <t>id:usuario</t>
   </si>
   <si>
-    <t>codigo postal</t>
+    <t>apellido y nomrbe</t>
+  </si>
+  <si>
+    <t>localidad</t>
   </si>
 </sst>
 </file>
@@ -280,9 +283,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -297,8 +300,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="2409825"/>
-          <a:ext cx="1066800" cy="581025"/>
+          <a:off x="3924300" y="2647950"/>
+          <a:ext cx="809625" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -686,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -766,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,6 +783,9 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
